--- a/wash_P/POL.xlsx
+++ b/wash_P/POL.xlsx
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS8" t="n">
         <v>0</v>
@@ -25310,7 +25310,7 @@
         <v>0</v>
       </c>
       <c r="KO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KP8" t="n">
         <v>0</v>
@@ -37246,7 +37246,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
         <v>0</v>
@@ -37273,7 +37273,7 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
         <v>0</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="MO13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MP13" t="n">
         <v>0</v>
@@ -46819,7 +46819,7 @@
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
         <v>0</v>
@@ -56779,7 +56779,7 @@
         <v>0</v>
       </c>
       <c r="MZ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA18" t="n">
         <v>0</v>
@@ -59907,7 +59907,7 @@
         <v>0</v>
       </c>
       <c r="MZ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NA19" t="n">
         <v>0</v>
@@ -62288,7 +62288,7 @@
         <v>0</v>
       </c>
       <c r="DK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL20" t="n">
         <v>0</v>
@@ -62480,7 +62480,7 @@
         <v>0</v>
       </c>
       <c r="FW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX20" t="n">
         <v>0</v>
@@ -72278,7 +72278,7 @@
         <v>0</v>
       </c>
       <c r="LE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF23" t="n">
         <v>0</v>
@@ -84919,7 +84919,7 @@
         <v>0</v>
       </c>
       <c r="MV27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW27" t="n">
         <v>0</v>
@@ -88056,7 +88056,7 @@
         <v>0</v>
       </c>
       <c r="MY28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MZ28" t="n">
         <v>0</v>
